--- a/AdoradoresdeC#/ES2N-Requisitos Funcionais v3 rev1710.xlsx
+++ b/AdoradoresdeC#/ES2N-Requisitos Funcionais v3 rev1710.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aulas2024_2sem\AtividadesES2N\VICTORHUGOSANCHESRODRIGUE\AdoradoresdeC#\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0030482223025\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08619AD-70E9-4DDF-99E8-9FAFF36C92F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6C6929-3A4F-4EDC-AE8A-CC9F8121CC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4ABF0B59-3EAA-4472-9014-1459B26A9A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t xml:space="preserve">LISTA DE REQUISITOS FUNCIONAIS </t>
   </si>
@@ -207,9 +198,6 @@
     <t>Baixa</t>
   </si>
   <si>
-    <t>Pode executar RF13 TIRAR</t>
-  </si>
-  <si>
     <t>Consultar Laudos de Matéria-Prima</t>
   </si>
   <si>
@@ -220,6 +208,18 @@
   </si>
   <si>
     <t>Pode ou Deve??? chamar RF11</t>
+  </si>
+  <si>
+    <t>RF15</t>
+  </si>
+  <si>
+    <t>RF16</t>
+  </si>
+  <si>
+    <t>Por meio de filtros o gerente e o laboratório podem consultar laudos de matéria-prima.</t>
+  </si>
+  <si>
+    <t>Por meio de filtros o gerente e o laboratório podem consultar laudos de produto.</t>
   </si>
 </sst>
 </file>
@@ -279,9 +279,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="18"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -334,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -369,11 +367,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,9 +388,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,7 +428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -538,7 +534,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -680,7 +676,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -690,20 +686,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3837308E-2BE3-4051-9282-618B7392BE50}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
+    <col min="2" max="2" width="44.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="78" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08984375" customWidth="1"/>
+    <col min="5" max="5" width="46.36328125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="31" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -712,7 +708,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="21.05" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -720,7 +716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.05" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="21" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -728,17 +724,17 @@
         <v>45561</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.65">
       <c r="C7" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="12" customFormat="1" ht="70.8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" s="12" customFormat="1" ht="70.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9" t="s">
         <v>3</v>
       </c>
@@ -755,7 +751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -770,7 +766,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -785,11 +781,11 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="46.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -800,7 +796,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" s="10" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -817,7 +813,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -832,7 +828,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
@@ -847,7 +843,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>17</v>
       </c>
@@ -862,7 +858,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
         <v>18</v>
       </c>
@@ -875,11 +871,9 @@
       <c r="D17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
@@ -894,7 +888,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
@@ -907,11 +901,11 @@
       <c r="D19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+      <c r="E19" s="16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
         <v>32</v>
       </c>
@@ -926,7 +920,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
@@ -941,7 +935,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
@@ -954,11 +948,11 @@
       <c r="D22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="47.2" x14ac:dyDescent="0.45">
+      <c r="E22" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="8" t="s">
         <v>54</v>
       </c>
@@ -973,277 +967,289 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A24" s="8"/>
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:5" ht="47" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
-      <c r="A25" s="1"/>
-      <c r="B25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="1"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
       <c r="E29" s="6"/>
     </row>
-    <row r="30" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
       <c r="E30" s="6"/>
     </row>
-    <row r="31" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
       <c r="E31" s="6"/>
     </row>
-    <row r="32" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="6"/>
     </row>
-    <row r="35" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="6"/>
     </row>
-    <row r="36" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="6"/>
     </row>
-    <row r="37" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="6"/>
       <c r="D41" s="1"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="6"/>
       <c r="D47" s="1"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
       <c r="E48" s="6"/>
     </row>
-    <row r="49" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="6"/>
       <c r="D49" s="1"/>
       <c r="E49" s="6"/>
     </row>
-    <row r="50" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
       <c r="E50" s="6"/>
     </row>
-    <row r="51" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="6"/>
       <c r="D51" s="1"/>
       <c r="E51" s="6"/>
     </row>
-    <row r="52" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="6"/>
       <c r="D52" s="1"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
       <c r="E53" s="6"/>
     </row>
-    <row r="54" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="6"/>
       <c r="D55" s="1"/>
       <c r="E55" s="6"/>
     </row>
-    <row r="56" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
       <c r="E56" s="6"/>
     </row>
-    <row r="57" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
       <c r="E58" s="6"/>
     </row>
-    <row r="59" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="6"/>
       <c r="D59" s="1"/>
       <c r="E59" s="6"/>
     </row>
-    <row r="60" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="6"/>
       <c r="D60" s="1"/>
       <c r="E60" s="6"/>
     </row>
-    <row r="61" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="6"/>
       <c r="D61" s="1"/>
       <c r="E61" s="6"/>
     </row>
-    <row r="62" spans="1:5" ht="23.6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="6"/>
@@ -1251,6 +1257,7 @@
       <c r="E62" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1371,18 +1378,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1402,18 +1409,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9386896A-91B6-4EC7-AC94-350129FCA8CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9030A888-F94C-446A-AE50-538902A00351}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>